--- a/eeprom-map.xlsx
+++ b/eeprom-map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitbucket\ESP32DrumPad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A967A66D-4EDF-4FE1-84C0-E08B125D9B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B14D09-58A0-4DCE-A26E-F9D4F2983065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C66537F-B845-44A3-9BD4-BA226E35FF3C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>Data</t>
   </si>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t>Channel 16</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>offsetMCUser</t>
+  </si>
+  <si>
+    <t>offsetMCPassword</t>
+  </si>
+  <si>
+    <t>MIDI Controller username</t>
+  </si>
+  <si>
+    <t>MIDI Controller password</t>
   </si>
 </sst>
 </file>
@@ -635,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A9396B-4E15-4464-A75D-FF74A87573AC}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="E35" sqref="A1:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="122" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +676,9 @@
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -702,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B35" si="0">B3+C3</f>
+        <f t="shared" ref="B4:B37" si="0">B3+C3</f>
         <v>40</v>
       </c>
       <c r="C4" s="2">
@@ -994,7 +1012,7 @@
         <v>292</v>
       </c>
       <c r="C20" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -1009,10 +1027,10 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C21" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
@@ -1027,10 +1045,10 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C22" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -1045,10 +1063,10 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C23" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -1063,10 +1081,10 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C24" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -1081,10 +1099,10 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C25" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -1099,10 +1117,10 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C26" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -1117,10 +1135,10 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C27" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -1135,10 +1153,10 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C28" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -1153,10 +1171,10 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="C29" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -1171,10 +1189,10 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="C30" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
@@ -1189,10 +1207,10 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="C31" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -1207,10 +1225,10 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C32" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -1225,10 +1243,10 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="C33" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -1243,10 +1261,10 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="C34" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
@@ -1261,10 +1279,10 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="C35" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -1273,17 +1291,57 @@
         <v>75</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+      <c r="C37" s="2">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C37">
-        <f>B35+C35</f>
-        <v>500</v>
+      <c r="C39">
+        <f>B37+C37</f>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eeprom-map.xlsx
+++ b/eeprom-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitbucket\ESP32DrumPad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B14D09-58A0-4DCE-A26E-F9D4F2983065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C655562-7832-4FB5-A9DE-6ECB9B452E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C66537F-B845-44A3-9BD4-BA226E35FF3C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11955" windowHeight="15600" xr2:uid="{9C66537F-B845-44A3-9BD4-BA226E35FF3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>Data</t>
   </si>
@@ -279,6 +279,21 @@
   </si>
   <si>
     <t>MIDI Controller password</t>
+  </si>
+  <si>
+    <t>readInterval</t>
+  </si>
+  <si>
+    <t>DWord</t>
+  </si>
+  <si>
+    <t>Read analog interval</t>
+  </si>
+  <si>
+    <t>midiChannel</t>
+  </si>
+  <si>
+    <t>MIDI channel</t>
   </si>
 </sst>
 </file>
@@ -354,9 +369,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,7 +409,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -500,7 +515,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -642,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -650,16 +665,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A9396B-4E15-4464-A75D-FF74A87573AC}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="122" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="122" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -720,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B37" si="0">B3+C3</f>
+        <f t="shared" ref="B4:B39" si="0">B3+C3</f>
         <v>40</v>
       </c>
       <c r="C4" s="2">
@@ -1328,15 +1344,51 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C39">
-        <f>B37+C37</f>
-        <v>504</v>
+      <c r="C41">
+        <f>B39+C39</f>
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/eeprom-map.xlsx
+++ b/eeprom-map.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ESP32DrumPad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitbucket\ESP32DrumPad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD8C8FC-E344-4EB4-AED5-40380223649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FAED82-4306-4769-BEDE-1B75FBBE5C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C66537F-B845-44A3-9BD4-BA226E35FF3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C66537F-B845-44A3-9BD4-BA226E35FF3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="90">
   <si>
     <t>Data</t>
   </si>
@@ -300,10 +301,10 @@
     <t>=</t>
   </si>
   <si>
-    <t>;</t>
-  </si>
-  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>; //</t>
   </si>
 </sst>
 </file>
@@ -350,10 +351,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -374,9 +375,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -414,7 +415,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -520,7 +521,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A9396B-4E15-4464-A75D-FF74A87573AC}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="182" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="182" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +689,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -700,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -714,7 +715,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>83</v>
@@ -725,8 +726,8 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>88</v>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="1">
         <v>30</v>
@@ -740,7 +741,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>84</v>
@@ -749,11 +750,11 @@
         <v>87</v>
       </c>
       <c r="D3" s="1">
-        <f>D9+F9</f>
-        <v>103</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>88</v>
+        <f>D2+F2</f>
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F3" s="1">
         <v>30</v>
@@ -767,7 +768,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -776,11 +777,11 @@
         <v>87</v>
       </c>
       <c r="D4" s="1">
-        <f>D8+F8</f>
+        <f t="shared" ref="D4:D38" si="0">D3+F3</f>
         <v>60</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>88</v>
+      <c r="E4" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
@@ -794,7 +795,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -803,11 +804,11 @@
         <v>87</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D39" si="0">D4+F4</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>88</v>
+      <c r="E5" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -821,7 +822,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -833,8 +834,8 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
@@ -848,7 +849,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -860,8 +861,8 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>88</v>
+      <c r="E7" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -875,7 +876,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>85</v>
@@ -884,11 +885,11 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <f>D2+F2</f>
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>88</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F8" s="1">
         <v>30</v>
@@ -902,7 +903,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>86</v>
@@ -911,11 +912,11 @@
         <v>87</v>
       </c>
       <c r="D9" s="1">
-        <f>D7+F7</f>
-        <v>73</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>88</v>
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F9" s="1">
         <v>30</v>
@@ -929,7 +930,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -938,11 +939,11 @@
         <v>87</v>
       </c>
       <c r="D10" s="1">
-        <f>D3+F3</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>88</v>
+      <c r="E10" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F10" s="1">
         <v>40</v>
@@ -956,7 +957,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -968,8 +969,8 @@
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>88</v>
+      <c r="E11" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -983,7 +984,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -995,8 +996,8 @@
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>88</v>
+      <c r="E12" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F12" s="1">
         <v>50</v>
@@ -1010,7 +1011,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -1022,8 +1023,8 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>88</v>
+      <c r="E13" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F13" s="1">
         <v>20</v>
@@ -1037,7 +1038,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -1049,8 +1050,8 @@
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>88</v>
+      <c r="E14" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F14" s="1">
         <v>20</v>
@@ -1064,10 +1065,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>87</v>
@@ -1076,35 +1077,35 @@
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>88</v>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F15" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>295</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>88</v>
+        <v>266</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1113,25 +1114,25 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>296</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>267</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1140,25 +1141,25 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>297</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>268</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1167,52 +1168,52 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>298</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>269</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>299</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>289</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F20" s="1">
         <v>20</v>
@@ -1221,106 +1222,106 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>319</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>309</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>339</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>310</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>314</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>344</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>88</v>
+        <v>324</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F24" s="1">
         <v>10</v>
@@ -1329,25 +1330,25 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>354</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>88</v>
+        <v>334</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
@@ -1356,25 +1357,25 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>88</v>
+        <v>344</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F26" s="1">
         <v>10</v>
@@ -1383,25 +1384,25 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>374</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>88</v>
+        <v>354</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
@@ -1410,25 +1411,25 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>88</v>
+        <v>364</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
@@ -1437,25 +1438,25 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>394</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>88</v>
+        <v>374</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F29" s="1">
         <v>10</v>
@@ -1464,25 +1465,25 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>404</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>88</v>
+        <v>384</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F30" s="1">
         <v>10</v>
@@ -1491,25 +1492,25 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>414</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>394</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F31" s="1">
         <v>10</v>
@@ -1518,25 +1519,25 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>424</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>88</v>
+        <v>404</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F32" s="1">
         <v>10</v>
@@ -1545,25 +1546,25 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>434</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>88</v>
+        <v>414</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F33" s="1">
         <v>10</v>
@@ -1572,25 +1573,25 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>88</v>
+        <v>424</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F34" s="1">
         <v>10</v>
@@ -1599,25 +1600,25 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>454</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>88</v>
+        <v>434</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -1626,25 +1627,25 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>464</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>88</v>
+        <v>444</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -1653,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>474</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>88</v>
+        <v>454</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -1680,25 +1681,25 @@
         <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>484</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>88</v>
+        <v>464</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F38" s="1">
         <v>10</v>
@@ -1707,48 +1708,21 @@
         <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>494</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="1">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" t="s">
-        <v>71</v>
-      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="F41">
-        <f>D39+F39</f>
-        <v>504</v>
+      <c r="C40" s="1"/>
+      <c r="F40">
+        <f>D38+F38</f>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -1756,4 +1730,719 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B710127F-6B87-4581-A57E-6BBDE4507514}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2+C2</f>
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B3+C3</f>
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4+C4</f>
+        <v>64</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B5+C5</f>
+        <v>68</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B6+C6</f>
+        <v>72</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B7+C7</f>
+        <v>73</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B8+C8</f>
+        <v>103</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B9+C9</f>
+        <v>133</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B10+C10</f>
+        <v>173</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B11+C11</f>
+        <v>175</v>
+      </c>
+      <c r="C12" s="1">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B12+C12</f>
+        <v>225</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <f>B13+C13</f>
+        <v>245</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B14+C14</f>
+        <v>265</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B15+C15</f>
+        <v>295</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B16+C16</f>
+        <v>296</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B17+C17</f>
+        <v>297</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <f>B18+C18</f>
+        <v>298</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B19+C19</f>
+        <v>299</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B20+C20</f>
+        <v>319</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1">
+        <f>B21+C21</f>
+        <v>339</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B22+C22</f>
+        <v>340</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <f>B23+C23</f>
+        <v>344</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B24+C24</f>
+        <v>354</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B25+C25</f>
+        <v>364</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1">
+        <f>B26+C26</f>
+        <v>374</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
+        <f>B27+C27</f>
+        <v>384</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B28+C28</f>
+        <v>394</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <f>B29+C29</f>
+        <v>404</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
+        <f>B30+C30</f>
+        <v>414</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1">
+        <f>B31+C31</f>
+        <v>424</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1">
+        <f>B32+C32</f>
+        <v>434</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1">
+        <f>B33+C33</f>
+        <v>444</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1">
+        <f>B34+C34</f>
+        <v>454</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1">
+        <f>B35+C35</f>
+        <v>464</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1">
+        <f>B36+C36</f>
+        <v>474</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1">
+        <f>B37+C37</f>
+        <v>484</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1">
+        <f>B38+C38</f>
+        <v>494</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/eeprom-map.xlsx
+++ b/eeprom-map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitbucket\ESP32DrumPad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FAED82-4306-4769-BEDE-1B75FBBE5C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11EA1EC-45BD-4575-B66E-FBAF1BB0D896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C66537F-B845-44A3-9BD4-BA226E35FF3C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="94">
   <si>
     <t>Data</t>
   </si>
@@ -73,9 +73,6 @@
     <t>offsetWSPassword</t>
   </si>
   <si>
-    <t>offsetWSTopic</t>
-  </si>
-  <si>
     <t>offsetEnable</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Password WS</t>
   </si>
   <si>
-    <t>Topic WS</t>
-  </si>
-  <si>
     <t>Enable WS</t>
   </si>
   <si>
@@ -305,6 +299,24 @@
   </si>
   <si>
     <t>; //</t>
+  </si>
+  <si>
+    <t>offsetWSScheme</t>
+  </si>
+  <si>
+    <t>Scheme WS</t>
+  </si>
+  <si>
+    <t>offsetWifiEnable</t>
+  </si>
+  <si>
+    <t>;//</t>
+  </si>
+  <si>
+    <t>Enable Wifi</t>
+  </si>
+  <si>
+    <t>offsetWSEnable</t>
   </si>
 </sst>
 </file>
@@ -671,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A9396B-4E15-4464-A75D-FF74A87573AC}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="182" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="182" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,1040 +701,1089 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1">
         <f>D2+F2</f>
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">D3+F3</f>
+        <f t="shared" ref="D4:D40" si="0">D3+F3</f>
         <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
-        <v>38</v>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1">
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>173</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F12" s="1">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>182</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F26" s="1">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F30" s="1">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F31" s="1">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F32" s="1">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F33" s="1">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" s="1">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F38" s="1">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="F40">
-        <f>D38+F38</f>
-        <v>474</v>
+        <v>31</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="F42">
+        <f>D40+F40</f>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -1736,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B710127F-6B87-4581-A57E-6BBDE4507514}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection sqref="A1:E39"/>
     </sheetView>
   </sheetViews>
@@ -1753,15 +1814,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1770,15 +1831,15 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1">
         <f>B2+C2</f>
@@ -1788,10 +1849,10 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1806,10 +1867,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1824,10 +1885,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1842,10 +1903,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1860,15 +1921,15 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1">
         <f>B7+C7</f>
@@ -1878,15 +1939,15 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1">
         <f>B8+C8</f>
@@ -1896,550 +1957,550 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <f>B9+C9</f>
         <v>133</v>
       </c>
       <c r="C10" s="1">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <f>B10+C10</f>
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <f>B11+C11</f>
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <f>B12+C12</f>
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <f>B13+C13</f>
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <f>B14+C14</f>
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C15" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <f>B15+C15</f>
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <f>B16+C16</f>
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
         <f>B17+C17</f>
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
         <f>B18+C18</f>
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1">
         <f>B19+C19</f>
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1">
         <f>B20+C20</f>
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1">
         <f>B21+C21</f>
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1">
         <f>B22+C22</f>
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1">
         <f>B23+C23</f>
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1">
         <f>B24+C24</f>
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
         <f>B25+C25</f>
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
         <f>B26+C26</f>
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1">
         <f>B27+C27</f>
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <f>B28+C28</f>
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <f>B29+C29</f>
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1">
         <f>B30+C30</f>
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1">
         <f>B31+C31</f>
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1">
         <f>B32+C32</f>
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1">
         <f>B33+C33</f>
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1">
         <f>B34+C34</f>
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1">
         <f>B35+C35</f>
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1">
         <f>B36+C36</f>
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1">
         <f>B37+C37</f>
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1">
         <f>B38+C38</f>
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/eeprom-map.xlsx
+++ b/eeprom-map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitbucket\ESP32DrumPad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11EA1EC-45BD-4575-B66E-FBAF1BB0D896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65505103-B597-4A07-A24D-A04DF1C193EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C66537F-B845-44A3-9BD4-BA226E35FF3C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="98">
   <si>
     <t>Data</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>offsetWSEnable</t>
+  </si>
+  <si>
+    <t>offsetTestVelocity</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>Test velocity</t>
+  </si>
+  <si>
+    <t>IPAddress</t>
   </si>
 </sst>
 </file>
@@ -683,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A9396B-4E15-4464-A75D-FF74A87573AC}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="182" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D40"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +801,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D40" si="0">D3+F3</f>
+        <f t="shared" ref="D4:D41" si="0">D3+F3</f>
         <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -799,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
         <v>41</v>
@@ -826,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
@@ -853,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
@@ -968,6 +980,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>93</v>
       </c>
@@ -1773,15 +1788,42 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="F42">
+      <c r="C43" s="1"/>
+      <c r="F43">
         <f>D40+F40</f>
         <v>480</v>
       </c>
@@ -1842,7 +1884,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="1">
-        <f>B2+C2</f>
+        <f t="shared" ref="B3:B39" si="0">B2+C2</f>
         <v>30</v>
       </c>
       <c r="C3" s="1">
@@ -1860,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C4" s="1">
@@ -1878,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f>B4+C4</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C5" s="1">
@@ -1896,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f>B5+C5</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C6" s="1">
@@ -1914,7 +1956,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f>B6+C6</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C7" s="1">
@@ -1932,7 +1974,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="1">
-        <f>B7+C7</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C8" s="1">
@@ -1950,7 +1992,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="1">
-        <f>B8+C8</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="C9" s="1">
@@ -1968,7 +2010,7 @@
         <v>88</v>
       </c>
       <c r="B10" s="1">
-        <f>B9+C9</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="C10" s="1">
@@ -1986,7 +2028,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <f>B10+C10</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="C11" s="1">
@@ -2004,7 +2046,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <f>B11+C11</f>
+        <f t="shared" si="0"/>
         <v>178</v>
       </c>
       <c r="C12" s="1">
@@ -2022,7 +2064,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <f>B12+C12</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="C13" s="1">
@@ -2040,7 +2082,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <f>B13+C13</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="C14" s="1">
@@ -2058,7 +2100,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <f>B14+C14</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="C15" s="1">
@@ -2076,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <f>B15+C15</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="C16" s="1">
@@ -2094,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <f>B16+C16</f>
+        <f t="shared" si="0"/>
         <v>271</v>
       </c>
       <c r="C17" s="1">
@@ -2112,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <f>B17+C17</f>
+        <f t="shared" si="0"/>
         <v>272</v>
       </c>
       <c r="C18" s="1">
@@ -2130,7 +2172,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <f>B18+C18</f>
+        <f t="shared" si="0"/>
         <v>273</v>
       </c>
       <c r="C19" s="1">
@@ -2148,7 +2190,7 @@
         <v>71</v>
       </c>
       <c r="B20" s="1">
-        <f>B19+C19</f>
+        <f t="shared" si="0"/>
         <v>274</v>
       </c>
       <c r="C20" s="1">
@@ -2166,7 +2208,7 @@
         <v>72</v>
       </c>
       <c r="B21" s="1">
-        <f>B20+C20</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="C21" s="1">
@@ -2184,7 +2226,7 @@
         <v>78</v>
       </c>
       <c r="B22" s="1">
-        <f>B21+C21</f>
+        <f t="shared" si="0"/>
         <v>314</v>
       </c>
       <c r="C22" s="1">
@@ -2202,7 +2244,7 @@
         <v>75</v>
       </c>
       <c r="B23" s="1">
-        <f>B22+C22</f>
+        <f t="shared" si="0"/>
         <v>315</v>
       </c>
       <c r="C23" s="1">
@@ -2220,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="1">
-        <f>B23+C23</f>
+        <f t="shared" si="0"/>
         <v>319</v>
       </c>
       <c r="C24" s="1">
@@ -2238,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="1">
-        <f>B24+C24</f>
+        <f t="shared" si="0"/>
         <v>329</v>
       </c>
       <c r="C25" s="1">
@@ -2256,7 +2298,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="1">
-        <f>B25+C25</f>
+        <f t="shared" si="0"/>
         <v>339</v>
       </c>
       <c r="C26" s="1">
@@ -2274,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="1">
-        <f>B26+C26</f>
+        <f t="shared" si="0"/>
         <v>349</v>
       </c>
       <c r="C27" s="1">
@@ -2292,7 +2334,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="1">
-        <f>B27+C27</f>
+        <f t="shared" si="0"/>
         <v>359</v>
       </c>
       <c r="C28" s="1">
@@ -2310,7 +2352,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="1">
-        <f>B28+C28</f>
+        <f t="shared" si="0"/>
         <v>369</v>
       </c>
       <c r="C29" s="1">
@@ -2328,7 +2370,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="1">
-        <f>B29+C29</f>
+        <f t="shared" si="0"/>
         <v>379</v>
       </c>
       <c r="C30" s="1">
@@ -2346,7 +2388,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="1">
-        <f>B30+C30</f>
+        <f t="shared" si="0"/>
         <v>389</v>
       </c>
       <c r="C31" s="1">
@@ -2364,7 +2406,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="1">
-        <f>B31+C31</f>
+        <f t="shared" si="0"/>
         <v>399</v>
       </c>
       <c r="C32" s="1">
@@ -2382,7 +2424,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="1">
-        <f>B32+C32</f>
+        <f t="shared" si="0"/>
         <v>409</v>
       </c>
       <c r="C33" s="1">
@@ -2400,7 +2442,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="1">
-        <f>B33+C33</f>
+        <f t="shared" si="0"/>
         <v>419</v>
       </c>
       <c r="C34" s="1">
@@ -2418,7 +2460,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="1">
-        <f>B34+C34</f>
+        <f t="shared" si="0"/>
         <v>429</v>
       </c>
       <c r="C35" s="1">
@@ -2436,7 +2478,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="1">
-        <f>B35+C35</f>
+        <f t="shared" si="0"/>
         <v>439</v>
       </c>
       <c r="C36" s="1">
@@ -2454,7 +2496,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="1">
-        <f>B36+C36</f>
+        <f t="shared" si="0"/>
         <v>449</v>
       </c>
       <c r="C37" s="1">
@@ -2472,7 +2514,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1">
-        <f>B37+C37</f>
+        <f t="shared" si="0"/>
         <v>459</v>
       </c>
       <c r="C38" s="1">
@@ -2490,7 +2532,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="1">
-        <f>B38+C38</f>
+        <f t="shared" si="0"/>
         <v>469</v>
       </c>
       <c r="C39" s="1">
